--- a/Classification_Trails/AccuracyList.xlsx
+++ b/Classification_Trails/AccuracyList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GITKRAKEN\major\Classification_Trails\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>Mix Accuracy</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>SVM</t>
   </si>
   <si>
@@ -56,7 +53,10 @@
     <t>Random Forest Classification</t>
   </si>
   <si>
-    <t>Feature Extraction Method</t>
+    <t>SVM_RBF_Kernel</t>
+  </si>
+  <si>
+    <t>Indian Accuracy</t>
   </si>
 </sst>
 </file>
@@ -100,13 +100,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,100 +391,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.296875" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="59.296875" customWidth="1"/>
+    <col min="1" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>97.98</v>
+      </c>
+      <c r="C2" s="2">
+        <v>94.72</v>
+      </c>
+      <c r="D2" s="2">
+        <v>96.21</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>93.96</v>
+      </c>
+      <c r="C3" s="2">
+        <v>88.44</v>
+      </c>
+      <c r="D3" s="2">
+        <v>91.71</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="3">
+        <v>98.42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>89.84</v>
+      </c>
+      <c r="D4" s="2">
+        <v>93.09</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="3">
+        <v>97.48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>95.09</v>
+      </c>
+      <c r="D5" s="2">
+        <v>95.34</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>91.41</v>
+      </c>
+      <c r="D6" s="2">
+        <v>92.89</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="3">
+        <v>96.62</v>
+      </c>
+      <c r="C7" s="2">
+        <v>93.34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>95.26</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="3">
+        <v>97.98</v>
+      </c>
+      <c r="C8" s="2">
+        <v>95.7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>96.05</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -565,6 +608,13 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
+    <row r="21" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
